--- a/sensor/componentes/Reguladores de tensión.xlsx
+++ b/sensor/componentes/Reguladores de tensión.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raula\Desktop\Redes de sensores\Redes-de-sensores\Proyecto\Componetes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raula\Documents\GitHub\app-puntillas\sensor\componentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5E0E83-27F1-4D24-B315-48B92352EA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A721235-9D52-405E-AC8B-F1088DFFF053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92BB7082-02F5-4003-BC7A-1E9B2F33D2D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Topología</t>
   </si>
@@ -100,13 +100,7 @@
     <t>2,7-36</t>
   </si>
   <si>
-    <t>&gt; 80</t>
-  </si>
-  <si>
     <t>&gt; 90</t>
-  </si>
-  <si>
-    <t>&gt; 85</t>
   </si>
   <si>
     <t>&gt; 70</t>
@@ -147,9 +141,6 @@
   </si>
   <si>
     <t>&gt; 65</t>
-  </si>
-  <si>
-    <t>&gt; 50</t>
   </si>
   <si>
     <t>-</t>
@@ -254,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -395,17 +386,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -424,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,10 +458,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -493,22 +473,13 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -517,17 +488,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,7 +1192,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2959906-E8BD-45C1-93EB-73C55B320568}">
   <dimension ref="B2:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1256,18 +1229,18 @@
         <v>0</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="N2" s="30" t="s">
         <v>31</v>
-      </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1292,15 +1265,15 @@
       <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="30" t="s">
-        <v>23</v>
+      <c r="I3" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="35"/>
+        <v>27</v>
+      </c>
+      <c r="K3" s="32"/>
       <c r="L3" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M3" s="19">
         <v>14.1</v>
@@ -1331,96 +1304,96 @@
       <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>27</v>
+      <c r="I4" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="35"/>
+        <v>33</v>
+      </c>
+      <c r="K4" s="32"/>
       <c r="L4" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M4" s="20">
-        <v>0.88100000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="N4" s="20">
-        <v>0.88100000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="5">
         <v>3.3</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="5">
         <v>23</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="5">
         <v>2100</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>29</v>
+      <c r="I5" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="35"/>
+        <v>33</v>
+      </c>
+      <c r="K5" s="32"/>
       <c r="L5" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M5" s="21">
         <f>M4+M3</f>
-        <v>14.981</v>
+        <v>14.26</v>
       </c>
       <c r="N5" s="21">
         <f>N4+N3</f>
-        <v>0.88229999999999997</v>
+        <v>0.1613</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="5">
         <v>3.3</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="5">
         <v>6.5</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="5">
         <v>2100</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="30" t="s">
-        <v>29</v>
+      <c r="I6" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+        <v>33</v>
+      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
     </row>
     <row r="7" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
@@ -1444,16 +1417,16 @@
       <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="I7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
     </row>
     <row r="8" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
@@ -1477,18 +1450,18 @@
       <c r="H8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="35"/>
+      <c r="I8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="32"/>
       <c r="L8" s="37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M8" s="37"/>
-      <c r="N8" s="36"/>
+      <c r="N8" s="33"/>
     </row>
     <row r="9" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
@@ -1512,18 +1485,18 @@
       <c r="H9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="35"/>
+      <c r="I9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="32"/>
       <c r="L9" s="37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M9" s="37"/>
-      <c r="N9" s="38"/>
+      <c r="N9" s="34"/>
     </row>
     <row r="10" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
@@ -1534,10 +1507,10 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="L10" s="37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M10" s="37"/>
-      <c r="N10" s="40"/>
+      <c r="N10" s="36"/>
     </row>
     <row r="11" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
@@ -1548,10 +1521,10 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="L11" s="37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M11" s="37"/>
-      <c r="N11" s="39"/>
+      <c r="N11" s="35"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>

--- a/sensor/componentes/Reguladores de tensión.xlsx
+++ b/sensor/componentes/Reguladores de tensión.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raula\Documents\GitHub\app-puntillas\sensor\componentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A721235-9D52-405E-AC8B-F1088DFFF053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BAFA7C-9564-4221-A8F4-B472CCE9E172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92BB7082-02F5-4003-BC7A-1E9B2F33D2D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Topología</t>
   </si>
@@ -128,10 +128,6 @@
 BLE on (%)</t>
   </si>
   <si>
-    <t>Eficiencia
-BLE off (%)</t>
-  </si>
-  <si>
     <t>Consumo
 BLE on (mA)</t>
   </si>
@@ -140,9 +136,6 @@
 BLE off (mA)</t>
   </si>
   <si>
-    <t>&gt; 65</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -152,10 +145,23 @@
     <t>Otro con mayor eficiencia</t>
   </si>
   <si>
-    <t>Otro con menor consumo</t>
-  </si>
-  <si>
     <t>Destaca en algo</t>
+  </si>
+  <si>
+    <t>Eficiencia
+standby (%)</t>
+  </si>
+  <si>
+    <t>&gt; 80</t>
+  </si>
+  <si>
+    <t>&gt; 85</t>
+  </si>
+  <si>
+    <t>&gt; 55</t>
+  </si>
+  <si>
+    <t>&gt; 50</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,12 +228,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -245,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -400,11 +400,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,36 +489,53 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +566,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>789534</xdr:colOff>
+      <xdr:colOff>766674</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>50063</xdr:rowOff>
     </xdr:to>
@@ -703,7 +742,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>739140</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>93100</xdr:rowOff>
     </xdr:to>
@@ -1192,9 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2959906-E8BD-45C1-93EB-73C55B320568}">
   <dimension ref="B2:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1202,6 +1239,7 @@
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5546875" customWidth="1"/>
     <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
@@ -1231,16 +1269,16 @@
       <c r="I2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="30" t="s">
+      <c r="N2" s="28" t="s">
         <v>30</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1265,13 +1303,13 @@
       <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="32"/>
+      <c r="K3" s="29"/>
       <c r="L3" s="17" t="s">
         <v>22</v>
       </c>
@@ -1304,13 +1342,13 @@
       <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="32"/>
+      <c r="J4" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="29"/>
       <c r="L4" s="18" t="s">
         <v>23</v>
       </c>
@@ -1343,13 +1381,13 @@
       <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="32"/>
+      <c r="J5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="29"/>
       <c r="L5" s="22" t="s">
         <v>24</v>
       </c>
@@ -1384,16 +1422,16 @@
       <c r="H6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
+      <c r="J6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
@@ -1408,7 +1446,7 @@
       <c r="E7" s="5">
         <v>2</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="5">
         <v>8</v>
       </c>
       <c r="G7" s="5">
@@ -1417,16 +1455,16 @@
       <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
+      <c r="J7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
@@ -1450,18 +1488,18 @@
       <c r="H8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="32"/>
+      <c r="J8" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="29"/>
       <c r="L8" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="33"/>
+        <v>32</v>
+      </c>
+      <c r="M8" s="38"/>
+      <c r="N8" s="32"/>
     </row>
     <row r="9" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
@@ -1485,17 +1523,17 @@
       <c r="H9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="37"/>
+      <c r="M9" s="40"/>
       <c r="N9" s="34"/>
     </row>
     <row r="10" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1506,11 +1544,11 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="L10" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="36"/>
+      <c r="L10" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="42"/>
+      <c r="N10" s="33"/>
     </row>
     <row r="11" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
@@ -1520,11 +1558,6 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="L11" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="35"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
@@ -2239,11 +2272,10 @@
       <c r="H100" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
